--- a/farbcodes.xlsx
+++ b/farbcodes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\PsychoPy_Farbe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\PsychoPy_Farbe\Farbe und EEG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA979D7-3B44-4285-9FE2-8497388127B8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8CE9FD-CFD0-45CF-BECF-4B062F87D217}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{EF32CE61-0FC6-4553-96CD-60FCD78BDA28}"/>
   </bookViews>
@@ -36,9 +36,6 @@
     <t>blau</t>
   </si>
   <si>
-    <t>gesättigt, mittel-hell</t>
-  </si>
-  <si>
     <t>mittlere Sättigung, dunkel</t>
   </si>
   <si>
@@ -57,18 +54,12 @@
     <t>#804040</t>
   </si>
   <si>
-    <t>#e60000</t>
-  </si>
-  <si>
     <t>mittlere Sättigung, hell</t>
   </si>
   <si>
     <t>#ff8080</t>
   </si>
   <si>
-    <t xml:space="preserve">Hell 90 </t>
-  </si>
-  <si>
     <t>Hell 50, Sätt 50</t>
   </si>
   <si>
@@ -90,43 +81,52 @@
     <t>#ffff80</t>
   </si>
   <si>
-    <t>#e6e600</t>
-  </si>
-  <si>
-    <t>#00e600</t>
-  </si>
-  <si>
     <t>#408040</t>
   </si>
   <si>
     <t>#80ff80</t>
   </si>
   <si>
-    <t>#0000e6</t>
-  </si>
-  <si>
     <t>#404080</t>
   </si>
   <si>
     <t>#8080ff</t>
   </si>
   <si>
-    <t>#00e6e6</t>
-  </si>
-  <si>
     <t>#408080</t>
   </si>
   <si>
     <t>#80ffff</t>
   </si>
   <si>
-    <t>#a400e6</t>
-  </si>
-  <si>
     <t>#db80ff</t>
   </si>
   <si>
     <t>#6d4080</t>
+  </si>
+  <si>
+    <t>#ff0000</t>
+  </si>
+  <si>
+    <t>#ffff00</t>
+  </si>
+  <si>
+    <t>#00ff00</t>
+  </si>
+  <si>
+    <t>#00ffff</t>
+  </si>
+  <si>
+    <t>#0000ff</t>
+  </si>
+  <si>
+    <t>#b600ff</t>
+  </si>
+  <si>
+    <t>Hell 100, Sätt 100</t>
+  </si>
+  <si>
+    <t>gesättigt, hell</t>
   </si>
 </sst>
 </file>
@@ -479,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA452C3D-2A25-4A73-BFEA-5DF1BC4EA32A}">
-  <dimension ref="A3:I6"/>
+  <dimension ref="A3:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,10 +494,10 @@
   <sheetData>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
         <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
       </c>
       <c r="E3" t="s">
         <v>0</v>
@@ -506,39 +506,39 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H3" t="s">
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I4" t="s">
         <v>31</v>
@@ -546,60 +546,60 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F8" t="s">
         <v>19</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G8" t="s">
         <v>23</v>
       </c>
-      <c r="G5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" t="s">
-        <v>33</v>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
